--- a/DRO Dump Report.xlsx
+++ b/DRO Dump Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>#</t>
   </si>
@@ -34,6 +34,18 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>ACT</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -114,15 +126,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:G5" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:G5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B4:G5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="7"/>
-    <tableColumn id="2" name="DRO Name" dataDxfId="6"/>
-    <tableColumn id="3" name="Category" dataDxfId="5"/>
-    <tableColumn id="4" name="Scoring" dataDxfId="4"/>
-    <tableColumn id="5" name="Repeated" dataDxfId="3"/>
-    <tableColumn id="6" name="Comment" dataDxfId="2"/>
+    <tableColumn id="1" name="#" dataDxfId="5"/>
+    <tableColumn id="2" name="DRO Name" dataDxfId="4"/>
+    <tableColumn id="3" name="Category" dataDxfId="3"/>
+    <tableColumn id="4" name="Scoring" dataDxfId="2"/>
+    <tableColumn id="5" name="Repeated" dataDxfId="1"/>
+    <tableColumn id="6" name="Comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -418,7 +430,7 @@
   <dimension ref="B4:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,11 +464,21 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
   </sheetData>

--- a/DRO Dump Report.xlsx
+++ b/DRO Dump Report.xlsx
@@ -126,8 +126,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:G5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B4:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:G64" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B4:G64"/>
   <tableColumns count="6">
     <tableColumn id="1" name="#" dataDxfId="5"/>
     <tableColumn id="2" name="DRO Name" dataDxfId="4"/>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G5"/>
+  <dimension ref="B4:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,6 +480,596 @@
         <v>9</v>
       </c>
       <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <v>31</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <v>35</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>36</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <v>37</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>38</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>39</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <v>40</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
+        <v>41</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
+        <v>42</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="1">
+        <v>43</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="1">
+        <v>44</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="1">
+        <v>45</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="1">
+        <v>46</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="1">
+        <v>47</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="1">
+        <v>48</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="1">
+        <v>49</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="1">
+        <v>50</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="1">
+        <v>51</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="1">
+        <v>52</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="1">
+        <v>53</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="1">
+        <v>54</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="1">
+        <v>55</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="1">
+        <v>56</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="1">
+        <v>57</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="1">
+        <v>58</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="1">
+        <v>59</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B64" s="1">
+        <v>60</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DRO Dump Report.xlsx
+++ b/DRO Dump Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>#</t>
   </si>
@@ -46,6 +46,66 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Arthritis</t>
+  </si>
+  <si>
+    <t>Ankylosing Spondylitis Arthritis Impact Measurement Scales 2 (AS-AIMS2)</t>
+  </si>
+  <si>
+    <t>Scoring Logic is missing</t>
+  </si>
+  <si>
+    <t>Arthritis Impact Measurement Scale 2 (AIMS2) -SF</t>
+  </si>
+  <si>
+    <t>Arthritis Impact Measurement Scale 2 (AIMS2)</t>
+  </si>
+  <si>
+    <t>Same as #2</t>
+  </si>
+  <si>
+    <t>Arthritis Impact Measurement Scale 2 (AIMS2)-SF reference</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>This is a reference document.</t>
+  </si>
+  <si>
+    <t>Back Pain Functional Scale (BPFS)</t>
+  </si>
+  <si>
+    <t>Back Pain</t>
+  </si>
+  <si>
+    <t>BASDAI</t>
+  </si>
+  <si>
+    <t>Pain</t>
+  </si>
+  <si>
+    <t>This DRO doc is incomplete.</t>
+  </si>
+  <si>
+    <t>Bath Ankylosing Spondylitis Funcitonal Index (BASFI)</t>
+  </si>
+  <si>
+    <t>Ankylosing Spondylitis</t>
+  </si>
+  <si>
+    <t>Scoring and Scoring Logic is missing</t>
+  </si>
+  <si>
+    <t>Bournemouth Questionnaire (BQ)</t>
+  </si>
+  <si>
+    <t>Childhood Asthma control test</t>
+  </si>
+  <si>
+    <t>Section (ACT in 12yr old teens) of this matches #1</t>
   </si>
 </sst>
 </file>
@@ -61,12 +121,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,10 +147,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -92,28 +167,28 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -126,15 +201,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:G64" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:G64" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="B4:G64"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="5"/>
-    <tableColumn id="2" name="DRO Name" dataDxfId="4"/>
-    <tableColumn id="3" name="Category" dataDxfId="3"/>
-    <tableColumn id="4" name="Scoring" dataDxfId="2"/>
-    <tableColumn id="5" name="Repeated" dataDxfId="1"/>
-    <tableColumn id="6" name="Comment" dataDxfId="0"/>
+    <tableColumn id="1" name="#" dataDxfId="7"/>
+    <tableColumn id="2" name="DRO Name" dataDxfId="6"/>
+    <tableColumn id="3" name="Category" dataDxfId="5"/>
+    <tableColumn id="4" name="Scoring" dataDxfId="4"/>
+    <tableColumn id="5" name="Repeated" dataDxfId="3"/>
+    <tableColumn id="6" name="Comment" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -429,18 +504,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="7.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -481,95 +558,181 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>9</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1">

--- a/DRO Dump Report.xlsx
+++ b/DRO Dump Report.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C47CF1-86E2-46EF-9C7F-17681818AC51}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>#</t>
   </si>
@@ -46,12 +47,48 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Childhood Asthma</t>
+  </si>
+  <si>
+    <t>CIJSS</t>
+  </si>
+  <si>
+    <t>Arthritis</t>
+  </si>
+  <si>
+    <t>DPQ</t>
+  </si>
+  <si>
+    <t>Pain</t>
+  </si>
+  <si>
+    <t>DASH</t>
+  </si>
+  <si>
+    <t>Disability</t>
+  </si>
+  <si>
+    <t>DHI</t>
+  </si>
+  <si>
+    <t>EORTC QLQ-C30</t>
+  </si>
+  <si>
+    <t>Quality of life</t>
+  </si>
+  <si>
+    <t>Handicap</t>
+  </si>
+  <si>
+    <t>EuroQol-5D (EQ-5D)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,20 +158,23 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:G64" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B4:G64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B4:G64" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B4:G64" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="5"/>
-    <tableColumn id="2" name="DRO Name" dataDxfId="4"/>
-    <tableColumn id="3" name="Category" dataDxfId="3"/>
-    <tableColumn id="4" name="Scoring" dataDxfId="2"/>
-    <tableColumn id="5" name="Repeated" dataDxfId="1"/>
-    <tableColumn id="6" name="Comment" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DRO Name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Category" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Scoring" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Repeated" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -183,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,9 +256,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,6 +308,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -426,24 +500,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -481,7 +555,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -491,7 +565,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -501,7 +575,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -511,7 +585,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -521,7 +595,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -531,7 +605,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -541,7 +615,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -551,7 +625,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -561,7 +635,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -571,77 +645,127 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>11</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>12</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>13</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>14</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>15</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>16</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>17</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>18</v>
       </c>
@@ -651,7 +775,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>19</v>
       </c>
@@ -661,7 +785,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>20</v>
       </c>
@@ -671,7 +795,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>21</v>
       </c>
@@ -681,7 +805,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>22</v>
       </c>
@@ -691,7 +815,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>23</v>
       </c>
@@ -701,7 +825,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>24</v>
       </c>
@@ -711,7 +835,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>25</v>
       </c>
@@ -721,7 +845,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>26</v>
       </c>
@@ -731,7 +855,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>27</v>
       </c>
@@ -741,7 +865,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>28</v>
       </c>
@@ -751,7 +875,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>29</v>
       </c>
@@ -761,7 +885,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>30</v>
       </c>
@@ -771,7 +895,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>31</v>
       </c>
@@ -781,7 +905,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>32</v>
       </c>
@@ -791,7 +915,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>33</v>
       </c>
@@ -801,7 +925,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>34</v>
       </c>
@@ -811,7 +935,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>35</v>
       </c>
@@ -821,7 +945,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>36</v>
       </c>
@@ -831,7 +955,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>37</v>
       </c>
@@ -841,7 +965,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>38</v>
       </c>
@@ -851,7 +975,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>39</v>
       </c>
@@ -861,7 +985,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>40</v>
       </c>
@@ -871,7 +995,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>41</v>
       </c>
@@ -881,7 +1005,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>42</v>
       </c>
@@ -891,7 +1015,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>43</v>
       </c>
@@ -901,7 +1025,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>44</v>
       </c>
@@ -911,7 +1035,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>45</v>
       </c>
@@ -921,7 +1045,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>46</v>
       </c>
@@ -931,7 +1055,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>47</v>
       </c>
@@ -941,7 +1065,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>48</v>
       </c>
@@ -951,7 +1075,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>49</v>
       </c>
@@ -961,7 +1085,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>50</v>
       </c>
@@ -971,7 +1095,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>51</v>
       </c>
@@ -981,7 +1105,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>52</v>
       </c>
@@ -991,7 +1115,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>53</v>
       </c>
@@ -1001,7 +1125,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>54</v>
       </c>
@@ -1011,7 +1135,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>55</v>
       </c>
@@ -1021,7 +1145,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>56</v>
       </c>
@@ -1031,7 +1155,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>57</v>
       </c>
@@ -1041,7 +1165,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>58</v>
       </c>
@@ -1051,7 +1175,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>59</v>
       </c>
@@ -1061,7 +1185,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>60</v>
       </c>
@@ -1080,24 +1204,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DRO Dump Report.xlsx
+++ b/DRO Dump Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Section (ACT in 12yr old teens) of this matches #1</t>
+  </si>
+  <si>
+    <t>Hospital Anxiety and Depression Scale (HADS)</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
   </si>
 </sst>
 </file>
@@ -201,15 +207,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:G64" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:G64" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B4:G64"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="7"/>
-    <tableColumn id="2" name="DRO Name" dataDxfId="6"/>
-    <tableColumn id="3" name="Category" dataDxfId="5"/>
-    <tableColumn id="4" name="Scoring" dataDxfId="4"/>
-    <tableColumn id="5" name="Repeated" dataDxfId="3"/>
-    <tableColumn id="6" name="Comment" dataDxfId="2"/>
+    <tableColumn id="1" name="#" dataDxfId="5"/>
+    <tableColumn id="2" name="DRO Name" dataDxfId="4"/>
+    <tableColumn id="3" name="Category" dataDxfId="3"/>
+    <tableColumn id="4" name="Scoring" dataDxfId="2"/>
+    <tableColumn id="5" name="Repeated" dataDxfId="1"/>
+    <tableColumn id="6" name="Comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -505,14 +511,14 @@
   <dimension ref="B4:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="7.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" style="2" customWidth="1"/>
@@ -938,8 +944,12 @@
       <c r="B35" s="1">
         <v>31</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>

--- a/DRO Dump Report.xlsx
+++ b/DRO Dump Report.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C47CF1-86E2-46EF-9C7F-17681818AC51}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03F731CC-36F4-429B-BFB5-222C125DEE2F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -49,21 +49,81 @@
     <t>No</t>
   </si>
   <si>
+    <t>Arthritis</t>
+  </si>
+  <si>
+    <t>Ankylosing Spondylitis Arthritis Impact Measurement Scales 2 (AS-AIMS2)</t>
+  </si>
+  <si>
+    <t>Scoring Logic is missing</t>
+  </si>
+  <si>
+    <t>Arthritis Impact Measurement Scale 2 (AIMS2) -SF</t>
+  </si>
+  <si>
+    <t>Arthritis Impact Measurement Scale 2 (AIMS2)</t>
+  </si>
+  <si>
+    <t>Same as #2</t>
+  </si>
+  <si>
+    <t>Arthritis Impact Measurement Scale 2 (AIMS2)-SF reference</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>This is a reference document.</t>
+  </si>
+  <si>
+    <t>Back Pain Functional Scale (BPFS)</t>
+  </si>
+  <si>
+    <t>Back Pain</t>
+  </si>
+  <si>
+    <t>BASDAI</t>
+  </si>
+  <si>
+    <t>Pain</t>
+  </si>
+  <si>
+    <t>This DRO doc is incomplete.</t>
+  </si>
+  <si>
+    <t>Bath Ankylosing Spondylitis Funcitonal Index (BASFI)</t>
+  </si>
+  <si>
+    <t>Ankylosing Spondylitis</t>
+  </si>
+  <si>
+    <t>Scoring and Scoring Logic is missing</t>
+  </si>
+  <si>
+    <t>Bournemouth Questionnaire (BQ)</t>
+  </si>
+  <si>
+    <t>Childhood Asthma control test</t>
+  </si>
+  <si>
+    <t>Section (ACT in 12yr old teens) of this matches #1</t>
+  </si>
+  <si>
+    <t>Hospital Anxiety and Depression Scale (HADS)</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
+  </si>
+  <si>
     <t>Childhood Asthma</t>
   </si>
   <si>
     <t>CIJSS</t>
   </si>
   <si>
-    <t>Arthritis</t>
-  </si>
-  <si>
     <t>DPQ</t>
   </si>
   <si>
-    <t>Pain</t>
-  </si>
-  <si>
     <t>DASH</t>
   </si>
   <si>
@@ -73,13 +133,13 @@
     <t>DHI</t>
   </si>
   <si>
+    <t>Handicap</t>
+  </si>
+  <si>
     <t>EORTC QLQ-C30</t>
   </si>
   <si>
     <t>Quality of life</t>
-  </si>
-  <si>
-    <t>Handicap</t>
   </si>
   <si>
     <t>EuroQol-5D (EQ-5D)</t>
@@ -98,12 +158,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,8 +184,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -129,28 +207,28 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -503,18 +581,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="7.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -555,215 +635,301 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>9</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
+      <c r="B15" s="5">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
         <v>14</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="C18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
         <v>15</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="C19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
         <v>16</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="C20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
-        <v>15</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
         <v>17</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
@@ -895,12 +1061,16 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>31</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>

--- a/DRO Dump Report.xlsx
+++ b/DRO Dump Report.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03F731CC-36F4-429B-BFB5-222C125DEE2F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -112,12 +113,42 @@
   </si>
   <si>
     <t>Anxiety</t>
+  </si>
+  <si>
+    <t>Childhood Asthma</t>
+  </si>
+  <si>
+    <t>CIJSS</t>
+  </si>
+  <si>
+    <t>DPQ</t>
+  </si>
+  <si>
+    <t>DASH</t>
+  </si>
+  <si>
+    <t>Disability</t>
+  </si>
+  <si>
+    <t>DHI</t>
+  </si>
+  <si>
+    <t>Handicap</t>
+  </si>
+  <si>
+    <t>EORTC QLQ-C30</t>
+  </si>
+  <si>
+    <t>Quality of life</t>
+  </si>
+  <si>
+    <t>EuroQol-5D (EQ-5D)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -166,6 +197,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -202,20 +236,23 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:G64" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B4:G64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B4:G64" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B4:G64" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="5"/>
-    <tableColumn id="2" name="DRO Name" dataDxfId="4"/>
-    <tableColumn id="3" name="Category" dataDxfId="3"/>
-    <tableColumn id="4" name="Scoring" dataDxfId="2"/>
-    <tableColumn id="5" name="Repeated" dataDxfId="1"/>
-    <tableColumn id="6" name="Comment" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DRO Name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Category" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Scoring" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Repeated" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -264,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,9 +334,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,6 +386,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,26 +578,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="7.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="7.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.5546875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="14.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,7 +617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -564,7 +635,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -584,7 +655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -604,7 +675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -624,7 +695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -644,7 +715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -664,7 +735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -684,7 +755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -702,7 +773,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -720,7 +791,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -740,77 +811,127 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
         <v>11</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
         <v>12</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
         <v>13</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
         <v>14</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
+      <c r="C18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
         <v>15</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="1">
+      <c r="C19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
         <v>16</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="1">
+      <c r="C20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
         <v>17</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>18</v>
       </c>
@@ -820,7 +941,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>19</v>
       </c>
@@ -830,7 +951,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>20</v>
       </c>
@@ -840,7 +961,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>21</v>
       </c>
@@ -850,7 +971,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>22</v>
       </c>
@@ -860,7 +981,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>23</v>
       </c>
@@ -870,7 +991,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>24</v>
       </c>
@@ -880,7 +1001,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>25</v>
       </c>
@@ -890,7 +1011,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>26</v>
       </c>
@@ -900,7 +1021,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>27</v>
       </c>
@@ -910,7 +1031,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>28</v>
       </c>
@@ -920,7 +1041,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>29</v>
       </c>
@@ -930,7 +1051,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>30</v>
       </c>
@@ -940,7 +1061,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>31</v>
       </c>
@@ -954,7 +1075,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>32</v>
       </c>
@@ -964,7 +1085,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>33</v>
       </c>
@@ -974,7 +1095,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>34</v>
       </c>
@@ -984,7 +1105,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>35</v>
       </c>
@@ -994,7 +1115,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>36</v>
       </c>
@@ -1004,7 +1125,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>37</v>
       </c>
@@ -1014,7 +1135,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>38</v>
       </c>
@@ -1024,7 +1145,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>39</v>
       </c>
@@ -1034,7 +1155,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>40</v>
       </c>
@@ -1044,7 +1165,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>41</v>
       </c>
@@ -1054,7 +1175,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>42</v>
       </c>
@@ -1064,7 +1185,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>43</v>
       </c>
@@ -1074,7 +1195,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>44</v>
       </c>
@@ -1084,7 +1205,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>45</v>
       </c>
@@ -1094,7 +1215,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>46</v>
       </c>
@@ -1104,7 +1225,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>47</v>
       </c>
@@ -1114,7 +1235,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>48</v>
       </c>
@@ -1124,7 +1245,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>49</v>
       </c>
@@ -1134,7 +1255,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>50</v>
       </c>
@@ -1144,7 +1265,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>51</v>
       </c>
@@ -1154,7 +1275,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>52</v>
       </c>
@@ -1164,7 +1285,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>53</v>
       </c>
@@ -1174,7 +1295,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>54</v>
       </c>
@@ -1184,7 +1305,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>55</v>
       </c>
@@ -1194,7 +1315,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>56</v>
       </c>
@@ -1204,7 +1325,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>57</v>
       </c>
@@ -1214,7 +1335,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>58</v>
       </c>
@@ -1224,7 +1345,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>59</v>
       </c>
@@ -1234,7 +1355,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>60</v>
       </c>
@@ -1253,24 +1374,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DRO Dump Report.xlsx
+++ b/DRO Dump Report.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03F731CC-36F4-429B-BFB5-222C125DEE2F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7248"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="70">
   <si>
     <t>#</t>
   </si>
@@ -112,9 +111,6 @@
     <t>Hospital Anxiety and Depression Scale (HADS)</t>
   </si>
   <si>
-    <t>Anxiety</t>
-  </si>
-  <si>
     <t>Childhood Asthma</t>
   </si>
   <si>
@@ -143,13 +139,100 @@
   </si>
   <si>
     <t>EuroQol-5D (EQ-5D)</t>
+  </si>
+  <si>
+    <t>Anxiety and Depression</t>
+  </si>
+  <si>
+    <t>HAM-D Hamilton Depression Rating Scale</t>
+  </si>
+  <si>
+    <t>Depression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a ClinRO. </t>
+  </si>
+  <si>
+    <t>Hip disability and Osteoarthritis Outcome Score (HOOS1)</t>
+  </si>
+  <si>
+    <t>Hip Disability</t>
+  </si>
+  <si>
+    <t>HOOS Hip survey</t>
+  </si>
+  <si>
+    <t>#33 is the scoring reference.</t>
+  </si>
+  <si>
+    <t>Total Non DRO files</t>
+  </si>
+  <si>
+    <t>DRO Dump Report</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>DRO(s) Missing Scoring Logic</t>
+  </si>
+  <si>
+    <t>DRO Without Scoring</t>
+  </si>
+  <si>
+    <t>DRO With Scoring</t>
+  </si>
+  <si>
+    <t>Total Repeated DROs</t>
+  </si>
+  <si>
+    <t>Total DROs (minus repeated DROs)</t>
+  </si>
+  <si>
+    <t>HOOS Scoring</t>
+  </si>
+  <si>
+    <t>This is not a questionnaire. It is User Guide for HOOS</t>
+  </si>
+  <si>
+    <t>This is not a questionnaire. It is scoring logic for HOOS</t>
+  </si>
+  <si>
+    <t>THE INTERNATIONAL INDEX OF ERECTILE FUNCTION (IIEF)</t>
+  </si>
+  <si>
+    <t>Erectile Function</t>
+  </si>
+  <si>
+    <t>This is not a questionnaire. It is User Guide for IIEF</t>
+  </si>
+  <si>
+    <t>IIEF-5</t>
+  </si>
+  <si>
+    <t>Knee Evaluation</t>
+  </si>
+  <si>
+    <t>IKDC and Pedi-IKDC</t>
+  </si>
+  <si>
+    <t>Distal Forearm Fracture</t>
+  </si>
+  <si>
+    <t>IOF</t>
+  </si>
+  <si>
+    <t>Jr. HOOS scoring</t>
+  </si>
+  <si>
+    <t>Jr. HOOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,8 +240,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +259,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -201,11 +298,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -244,17 +401,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B4:G64" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B4:G64" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B11:G71" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="B11:G71"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DRO Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Category" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Scoring" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Repeated" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Comment" dataDxfId="0"/>
+    <tableColumn id="1" name="#" dataDxfId="10"/>
+    <tableColumn id="2" name="DRO Name" dataDxfId="9"/>
+    <tableColumn id="3" name="Category" dataDxfId="8"/>
+    <tableColumn id="4" name="Scoring" dataDxfId="7"/>
+    <tableColumn id="5" name="Repeated" dataDxfId="6"/>
+    <tableColumn id="6" name="Comment" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:D9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="B3:D9"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="#" dataDxfId="4"/>
+    <tableColumn id="2" name="DRO Dump Report" dataDxfId="3"/>
+    <tableColumn id="3" name="Value" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -301,7 +470,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,26 +503,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,23 +538,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -578,432 +713,432 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:G64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2"/>
-    <col min="2" max="2" width="7.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="9.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="2"/>
+    <col min="5" max="5" width="14.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="1" spans="2:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="C1" s="9"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="C5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="C6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="C7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+      <c r="C8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="11" spans="2:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4">
         <v>0.5</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
+    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="5">
         <v>11</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="5">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="5">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="D23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="5">
+        <v>13</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
-        <v>13</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="D24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="5">
+        <v>14</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="5">
-        <v>14</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
+        <v>15</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="5">
-        <v>15</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B27" s="5">
+        <v>16</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
-        <v>16</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
+        <v>17</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="5">
-        <v>17</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
         <v>18</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
-        <v>19</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
-        <v>20</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
-        <v>21</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
-        <v>22</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
-        <v>23</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="1">
-        <v>24</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
-        <v>25</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1011,9 +1146,9 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1021,9 +1156,9 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1031,9 +1166,9 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1041,9 +1176,9 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1051,9 +1186,9 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1061,23 +1196,19 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
-        <v>31</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1085,9 +1216,9 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1095,9 +1226,9 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1105,9 +1236,9 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1115,9 +1246,9 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1125,9 +1256,9 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1135,119 +1266,221 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
+        <v>31</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>32</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <v>33</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
+        <v>34</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
+        <v>35</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B47" s="1">
+        <v>36</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B48" s="1">
+        <v>37</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B49" s="1">
         <v>38</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="1">
+      <c r="C49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B50" s="1">
         <v>39</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="1">
+      <c r="C50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B51" s="1">
         <v>40</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="1">
+      <c r="C51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="1">
         <v>41</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="1">
+      <c r="C52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="1">
         <v>42</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="1">
-        <v>43</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="1">
-        <v>44</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="1">
-        <v>45</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="1">
-        <v>46</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="1">
-        <v>47</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="1">
-        <v>48</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="1">
-        <v>49</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1255,9 +1488,9 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="1">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1265,9 +1498,9 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="1">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1275,9 +1508,9 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="1">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1285,9 +1518,9 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="1">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1295,9 +1528,9 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="1">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1305,9 +1538,9 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="1">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1315,9 +1548,9 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="1">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1325,9 +1558,9 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="1">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1335,9 +1568,9 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="1">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1345,9 +1578,9 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="1">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1355,9 +1588,9 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="1">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1365,33 +1598,105 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="1">
+        <v>54</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" s="1">
+        <v>55</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="1">
+        <v>56</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="1">
+        <v>57</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="1">
+        <v>58</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="1">
+        <v>59</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="1">
+        <v>60</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DRO Dump Report.xlsx
+++ b/DRO Dump Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="112">
   <si>
     <t>#</t>
   </si>
@@ -192,21 +192,12 @@
     <t>HOOS Scoring</t>
   </si>
   <si>
-    <t>This is not a questionnaire. It is User Guide for HOOS</t>
-  </si>
-  <si>
-    <t>This is not a questionnaire. It is scoring logic for HOOS</t>
-  </si>
-  <si>
     <t>THE INTERNATIONAL INDEX OF ERECTILE FUNCTION (IIEF)</t>
   </si>
   <si>
     <t>Erectile Function</t>
   </si>
   <si>
-    <t>This is not a questionnaire. It is User Guide for IIEF</t>
-  </si>
-  <si>
     <t>IIEF-5</t>
   </si>
   <si>
@@ -226,6 +217,141 @@
   </si>
   <si>
     <t>Jr. HOOS</t>
+  </si>
+  <si>
+    <t>Osteoporosis Questionnaire (OPQ)</t>
+  </si>
+  <si>
+    <t>Osteoporosis</t>
+  </si>
+  <si>
+    <t>Oxford Shoulder Score (OSS) scoring</t>
+  </si>
+  <si>
+    <t>Oxford Shoulder Score (OSS)</t>
+  </si>
+  <si>
+    <t>Shoulder</t>
+  </si>
+  <si>
+    <t>PACQLQ papers</t>
+  </si>
+  <si>
+    <t>PACQLQ</t>
+  </si>
+  <si>
+    <t>PAQLQ</t>
+  </si>
+  <si>
+    <t>Reference Paper on PACQLQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It is a journal on Osteoporosis.</t>
+  </si>
+  <si>
+    <t>It is scoring logic for HOOS</t>
+  </si>
+  <si>
+    <t>This is scoring logic for HOOS</t>
+  </si>
+  <si>
+    <t>User Guide for IIEF</t>
+  </si>
+  <si>
+    <t>User Guide for HOOS</t>
+  </si>
+  <si>
+    <t>Parent's Arthritis Self-Efficacy Scale (PASE)</t>
+  </si>
+  <si>
+    <t>PCOSQ</t>
+  </si>
+  <si>
+    <t>Ovary</t>
+  </si>
+  <si>
+    <t>PROMIS_ANC</t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>PROMIS_ANC-SM</t>
+  </si>
+  <si>
+    <t>Scoring logic for PROMIS_ANC</t>
+  </si>
+  <si>
+    <t>PROMIS_AU_QS</t>
+  </si>
+  <si>
+    <t>PROMIS_AU_QS-SM</t>
+  </si>
+  <si>
+    <t>Scoring logic for PROMIS_AU_QS</t>
+  </si>
+  <si>
+    <t>ProQoL 5 Professional Quality of Life Scale</t>
+  </si>
+  <si>
+    <t>QOL</t>
+  </si>
+  <si>
+    <t>QoL - EORTC QLQ-CX24  scoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QoL - EORTC QLQ-CX24 </t>
+  </si>
+  <si>
+    <t>Cervical Cancer</t>
+  </si>
+  <si>
+    <t>Qualisex papers</t>
+  </si>
+  <si>
+    <t>Qualisex</t>
+  </si>
+  <si>
+    <t>Quick-DASH scoring</t>
+  </si>
+  <si>
+    <t>Scoring logic for Qualisex</t>
+  </si>
+  <si>
+    <t>Quick-DASH</t>
+  </si>
+  <si>
+    <t>Scoring logic for Quick DASH</t>
+  </si>
+  <si>
+    <t>Rheumatoid Arthritis Quality of Life Scale (RAQoL)</t>
+  </si>
+  <si>
+    <t>Stark QoL</t>
+  </si>
+  <si>
+    <t>STOPBANG</t>
+  </si>
+  <si>
+    <t>STOP-Bang</t>
+  </si>
+  <si>
+    <t>SVV-SF</t>
+  </si>
+  <si>
+    <t>Vertigo</t>
+  </si>
+  <si>
+    <t>USP</t>
+  </si>
+  <si>
+    <t>Urinary</t>
+  </si>
+  <si>
+    <t>WHO-BREF World Health Organization Quality of Life Instruments</t>
+  </si>
+  <si>
+    <t>W-QLI Wisconsin Quality Of Life Assessment</t>
   </si>
 </sst>
 </file>
@@ -295,9 +421,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -319,14 +442,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -361,6 +484,9 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -401,8 +527,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B11:G71" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="B11:G71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B11:G100" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="B11:G100"/>
   <tableColumns count="6">
     <tableColumn id="1" name="#" dataDxfId="10"/>
     <tableColumn id="2" name="DRO Name" dataDxfId="9"/>
@@ -416,12 +542,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:D9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:D9" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="B3:D9"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="#" dataDxfId="4"/>
-    <tableColumn id="2" name="DRO Dump Report" dataDxfId="3"/>
-    <tableColumn id="3" name="Value" dataDxfId="2"/>
+    <tableColumn id="1" name="#" dataDxfId="2"/>
+    <tableColumn id="2" name="DRO Dump Report" dataDxfId="1"/>
+    <tableColumn id="3" name="Value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -714,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G71"/>
+  <dimension ref="B1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,10 +859,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="C1" s="9"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -750,59 +876,59 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>3</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="12">
-        <v>5</v>
+      <c r="D8" s="11">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="11" spans="2:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="11" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,7 +948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>1</v>
       </c>
@@ -840,7 +966,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>2</v>
       </c>
@@ -860,7 +986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>3</v>
       </c>
@@ -880,7 +1006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>4</v>
       </c>
@@ -916,11 +1042,11 @@
       <c r="F16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>6</v>
       </c>
@@ -940,7 +1066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>7</v>
       </c>
@@ -960,7 +1086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>8</v>
       </c>
@@ -978,7 +1104,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>9</v>
       </c>
@@ -996,7 +1122,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>10</v>
       </c>
@@ -1016,127 +1142,127 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="5">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="12">
         <v>11</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="5">
+      <c r="E22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="12">
         <v>12</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="5">
+      <c r="E23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="12">
         <v>13</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="5">
+      <c r="E24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="12">
         <v>14</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="5">
+      <c r="E25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="12">
         <v>15</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="5">
+      <c r="E26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="12">
         <v>16</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="5">
-        <v>17</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="E27" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="12">
+        <v>17</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>18</v>
       </c>
@@ -1146,7 +1272,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>19</v>
       </c>
@@ -1156,7 +1282,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>20</v>
       </c>
@@ -1166,7 +1292,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>21</v>
       </c>
@@ -1176,7 +1302,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>22</v>
       </c>
@@ -1186,7 +1312,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>23</v>
       </c>
@@ -1196,7 +1322,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
         <v>24</v>
       </c>
@@ -1206,7 +1332,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>25</v>
       </c>
@@ -1216,7 +1342,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
         <v>26</v>
       </c>
@@ -1226,7 +1352,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
         <v>27</v>
       </c>
@@ -1236,7 +1362,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
         <v>28</v>
       </c>
@@ -1246,7 +1372,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>29</v>
       </c>
@@ -1256,7 +1382,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
         <v>30</v>
       </c>
@@ -1320,8 +1446,8 @@
       <c r="F44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="6" t="s">
-        <v>58</v>
+      <c r="G44" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
@@ -1344,7 +1470,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <v>35</v>
       </c>
@@ -1360,8 +1486,8 @@
       <c r="F46" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G46" s="6" t="s">
-        <v>59</v>
+      <c r="G46" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1369,10 +1495,10 @@
         <v>36</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>17</v>
@@ -1380,8 +1506,8 @@
       <c r="F47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>62</v>
+      <c r="G47" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1389,10 +1515,10 @@
         <v>37</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>8</v>
@@ -1407,10 +1533,10 @@
         <v>38</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>8</v>
@@ -1425,10 +1551,10 @@
         <v>39</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>9</v>
@@ -1440,12 +1566,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="1">
         <v>40</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>46</v>
@@ -1456,8 +1582,8 @@
       <c r="F51" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G51" s="6" t="s">
-        <v>59</v>
+      <c r="G51" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
@@ -1465,7 +1591,7 @@
         <v>41</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>46</v>
@@ -1667,6 +1793,530 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="1">
+        <v>61</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="1">
+        <v>62</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="1">
+        <v>63</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B75" s="1">
+        <v>64</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B76" s="1">
+        <v>65</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B77" s="1">
+        <v>66</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="1">
+        <v>67</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B79" s="1">
+        <v>68</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B80" s="1">
+        <v>69</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" s="1">
+        <v>70</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="1">
+        <v>71</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B83" s="1">
+        <v>72</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="1">
+        <v>73</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" s="1">
+        <v>74</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" s="1">
+        <v>75</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" s="1">
+        <v>76</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" s="1">
+        <v>77</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" s="1">
+        <v>78</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B90" s="1">
+        <v>79</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B91" s="1">
+        <v>80</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B92" s="1">
+        <v>81</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B93" s="1">
+        <v>82</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B94" s="1">
+        <v>83</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B95" s="1">
+        <v>84</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B96" s="1">
+        <v>85</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B97" s="1">
+        <v>86</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B98" s="1">
+        <v>87</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B99" s="1">
+        <v>88</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B100" s="1">
+        <v>89</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DRO Dump Report.xlsx
+++ b/DRO Dump Report.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5678856A-5725-45E4-83E1-927E66D8CB52}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7248"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="160">
   <si>
     <t>#</t>
   </si>
@@ -352,12 +353,156 @@
   </si>
   <si>
     <t>W-QLI Wisconsin Quality Of Life Assessment</t>
+  </si>
+  <si>
+    <t>FAAM</t>
+  </si>
+  <si>
+    <t>Activities of Daily Living </t>
+  </si>
+  <si>
+    <t>Health Related Quality of Life</t>
+  </si>
+  <si>
+    <t>FADI</t>
+  </si>
+  <si>
+    <t>Scoring Logic missing</t>
+  </si>
+  <si>
+    <t>FBI</t>
+  </si>
+  <si>
+    <t>Bladder</t>
+  </si>
+  <si>
+    <t>FertiQOL</t>
+  </si>
+  <si>
+    <t>Quality of Life</t>
+  </si>
+  <si>
+    <t>FIQ</t>
+  </si>
+  <si>
+    <t>Fibromyalgia</t>
+  </si>
+  <si>
+    <t>GAD </t>
+  </si>
+  <si>
+    <t>Anxiety Disorder </t>
+  </si>
+  <si>
+    <t>JR. KOOS</t>
+  </si>
+  <si>
+    <t>KNEE </t>
+  </si>
+  <si>
+    <t>KPS</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>LFQ</t>
+  </si>
+  <si>
+    <t>Lung </t>
+  </si>
+  <si>
+    <t>Lupus PRO</t>
+  </si>
+  <si>
+    <t>Lupus</t>
+  </si>
+  <si>
+    <t>M-AQLQ</t>
+  </si>
+  <si>
+    <t>COPD</t>
+  </si>
+  <si>
+    <t>Multi Dimensional Health Assessment</t>
+  </si>
+  <si>
+    <t>Health Assessment </t>
+  </si>
+  <si>
+    <t>MENQoL Menopause specific 1 Month</t>
+  </si>
+  <si>
+    <t>Quality of Life Questionnaire </t>
+  </si>
+  <si>
+    <t>MENQoL Menopause-specific 1 Week Intervention Version</t>
+  </si>
+  <si>
+    <t>MFI</t>
+  </si>
+  <si>
+    <t>Fatigue</t>
+  </si>
+  <si>
+    <t>Scoring logic missing.</t>
+  </si>
+  <si>
+    <t>Mini-AQLQ</t>
+  </si>
+  <si>
+    <t>MPAQ</t>
+  </si>
+  <si>
+    <t>Chronic physical illness</t>
+  </si>
+  <si>
+    <t>MQoLQ</t>
+  </si>
+  <si>
+    <t>Migraine QOL</t>
+  </si>
+  <si>
+    <t>Scoring and scoring logic missing.</t>
+  </si>
+  <si>
+    <t>MVSS and VSS</t>
+  </si>
+  <si>
+    <t>Vertigo Symptom Scale</t>
+  </si>
+  <si>
+    <t>NDI</t>
+  </si>
+  <si>
+    <t>Neck Disability</t>
+  </si>
+  <si>
+    <t>OAKHQOL</t>
+  </si>
+  <si>
+    <t>Knee and hip quality of life</t>
+  </si>
+  <si>
+    <t>ODI</t>
+  </si>
+  <si>
+    <t>Low Back Pain Disability</t>
+  </si>
+  <si>
+    <t>OLQL</t>
+  </si>
+  <si>
+    <t>Quality of Life in Women with Osteoporosis</t>
+  </si>
+  <si>
+    <t>Scoring login missing.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -444,6 +589,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,27 +678,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B11:G100" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="B11:G100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B11:G100" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="B11:G100" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="10"/>
-    <tableColumn id="2" name="DRO Name" dataDxfId="9"/>
-    <tableColumn id="3" name="Category" dataDxfId="8"/>
-    <tableColumn id="4" name="Scoring" dataDxfId="7"/>
-    <tableColumn id="5" name="Repeated" dataDxfId="6"/>
-    <tableColumn id="6" name="Comment" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DRO Name" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Category" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Scoring" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Repeated" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Comment" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:D9" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="B3:D9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="B3:D9" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="B3:D9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="#" dataDxfId="2"/>
-    <tableColumn id="2" name="DRO Dump Report" dataDxfId="1"/>
-    <tableColumn id="3" name="Value" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="#" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DRO Dump Report" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -596,7 +747,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -629,9 +780,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -664,6 +832,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -839,29 +1024,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="9.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="9.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.5546875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="14.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="21" x14ac:dyDescent="0.25">
       <c r="C1" s="8"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -872,7 +1057,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -883,7 +1068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
         <v>2</v>
       </c>
@@ -892,7 +1077,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>3</v>
       </c>
@@ -901,7 +1086,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>4</v>
       </c>
@@ -910,7 +1095,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>5</v>
       </c>
@@ -921,14 +1106,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="11" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -948,7 +1133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>1</v>
       </c>
@@ -966,7 +1151,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>2</v>
       </c>
@@ -986,7 +1171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>3</v>
       </c>
@@ -1006,7 +1191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>4</v>
       </c>
@@ -1026,7 +1211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>5</v>
       </c>
@@ -1046,7 +1231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>6</v>
       </c>
@@ -1066,7 +1251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>7</v>
       </c>
@@ -1086,7 +1271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>8</v>
       </c>
@@ -1104,7 +1289,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>9</v>
       </c>
@@ -1122,7 +1307,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>10</v>
       </c>
@@ -1142,7 +1327,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
         <v>11</v>
       </c>
@@ -1160,7 +1345,7 @@
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
         <v>12</v>
       </c>
@@ -1178,7 +1363,7 @@
       </c>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
         <v>13</v>
       </c>
@@ -1196,7 +1381,7 @@
       </c>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
         <v>14</v>
       </c>
@@ -1214,7 +1399,7 @@
       </c>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
         <v>15</v>
       </c>
@@ -1232,7 +1417,7 @@
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
         <v>16</v>
       </c>
@@ -1250,7 +1435,7 @@
       </c>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
         <v>17</v>
       </c>
@@ -1262,7 +1447,7 @@
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>18</v>
       </c>
@@ -1272,7 +1457,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>19</v>
       </c>
@@ -1282,77 +1467,139 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>20</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C31" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>21</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C32" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>22</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C33" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>23</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C34" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>24</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C35" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>25</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C36" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>26</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>27</v>
       </c>
@@ -1362,7 +1609,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>28</v>
       </c>
@@ -1372,7 +1619,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>29</v>
       </c>
@@ -1382,7 +1629,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>30</v>
       </c>
@@ -1392,7 +1639,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>31</v>
       </c>
@@ -1410,7 +1657,7 @@
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>32</v>
       </c>
@@ -1430,7 +1677,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>33</v>
       </c>
@@ -1450,7 +1697,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>34</v>
       </c>
@@ -1470,7 +1717,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>35</v>
       </c>
@@ -1490,7 +1737,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>36</v>
       </c>
@@ -1510,7 +1757,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>37</v>
       </c>
@@ -1528,7 +1775,7 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>38</v>
       </c>
@@ -1546,7 +1793,7 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>39</v>
       </c>
@@ -1566,7 +1813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>40</v>
       </c>
@@ -1586,7 +1833,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>41</v>
       </c>
@@ -1604,187 +1851,337 @@
       </c>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>42</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="C53" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>43</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="C54" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>44</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="C55" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>45</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="C56" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>46</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="C57" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>47</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="C58" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>48</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="C59" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>49</v>
       </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="C60" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>50</v>
       </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="C61" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>51</v>
       </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C62" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>52</v>
       </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C63" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>53</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>54</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C65" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>55</v>
       </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>56</v>
       </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>57</v>
       </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C68" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>58</v>
       </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>59</v>
       </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C70" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>60</v>
       </c>
@@ -1794,7 +2191,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>61</v>
       </c>
@@ -1804,7 +2201,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>62</v>
       </c>
@@ -1814,7 +2211,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>63</v>
       </c>
@@ -1824,7 +2221,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>64</v>
       </c>
@@ -1844,7 +2241,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>65</v>
       </c>
@@ -1864,7 +2261,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>66</v>
       </c>
@@ -1882,7 +2279,7 @@
       </c>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>67</v>
       </c>
@@ -1902,7 +2299,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>68</v>
       </c>
@@ -1922,7 +2319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>69</v>
       </c>
@@ -1942,7 +2339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>70</v>
       </c>
@@ -1960,7 +2357,7 @@
       </c>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>71</v>
       </c>
@@ -1978,7 +2375,7 @@
       </c>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>72</v>
       </c>
@@ -1996,7 +2393,7 @@
       </c>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>73</v>
       </c>
@@ -2016,7 +2413,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>74</v>
       </c>
@@ -2034,7 +2431,7 @@
       </c>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>75</v>
       </c>
@@ -2054,7 +2451,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>76</v>
       </c>
@@ -2072,7 +2469,7 @@
       </c>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>77</v>
       </c>
@@ -2092,7 +2489,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>78</v>
       </c>
@@ -2112,7 +2509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>79</v>
       </c>
@@ -2132,7 +2529,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>80</v>
       </c>
@@ -2150,7 +2547,7 @@
       </c>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>81</v>
       </c>
@@ -2170,7 +2567,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>82</v>
       </c>
@@ -2188,7 +2585,7 @@
       </c>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>83</v>
       </c>
@@ -2206,7 +2603,7 @@
       </c>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>84</v>
       </c>
@@ -2226,7 +2623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>85</v>
       </c>
@@ -2244,7 +2641,7 @@
       </c>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>86</v>
       </c>
@@ -2262,7 +2659,7 @@
       </c>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>87</v>
       </c>
@@ -2282,7 +2679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>88</v>
       </c>
@@ -2300,7 +2697,7 @@
       </c>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>89</v>
       </c>
@@ -2329,24 +2726,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DRO Dump Report.xlsx
+++ b/DRO Dump Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7248"/>
+    <workbookView xWindow="-12" yWindow="6636" windowWidth="28824" windowHeight="6684" tabRatio="310"/>
   </bookViews>
   <sheets>
     <sheet name="DRO" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="330">
   <si>
     <t>#</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>ACT</t>
-  </si>
-  <si>
     <t>Asthma</t>
   </si>
   <si>
@@ -58,12 +55,6 @@
     <t>Scoring Logic is missing</t>
   </si>
   <si>
-    <t>Arthritis Impact Measurement Scale 2 (AIMS2) -SF</t>
-  </si>
-  <si>
-    <t>Arthritis Impact Measurement Scale 2 (AIMS2)</t>
-  </si>
-  <si>
     <t>Arthritis Impact Measurement Scale 2 (AIMS2)-SF reference</t>
   </si>
   <si>
@@ -79,9 +70,6 @@
     <t>Back Pain</t>
   </si>
   <si>
-    <t>BASDAI</t>
-  </si>
-  <si>
     <t>Pain</t>
   </si>
   <si>
@@ -100,24 +88,9 @@
     <t>Bournemouth Questionnaire (BQ)</t>
   </si>
   <si>
-    <t>Childhood Asthma control test</t>
-  </si>
-  <si>
-    <t>Section (ACT in 12yr old teens) of this matches #1</t>
-  </si>
-  <si>
     <t>Hospital Anxiety and Depression Scale (HADS)</t>
   </si>
   <si>
-    <t>Childhood Asthma</t>
-  </si>
-  <si>
-    <t>DPQ</t>
-  </si>
-  <si>
-    <t>DASH</t>
-  </si>
-  <si>
     <t>Disability</t>
   </si>
   <si>
@@ -127,12 +100,6 @@
     <t>Handicap</t>
   </si>
   <si>
-    <t>EORTC QLQ-C30</t>
-  </si>
-  <si>
-    <t>Quality of life</t>
-  </si>
-  <si>
     <t>EuroQol-5D (EQ-5D)</t>
   </si>
   <si>
@@ -145,30 +112,12 @@
     <t>Depression</t>
   </si>
   <si>
-    <t xml:space="preserve">This is a ClinRO. </t>
-  </si>
-  <si>
     <t>Hip disability and Osteoarthritis Outcome Score (HOOS1)</t>
   </si>
   <si>
     <t>Hip Disability</t>
   </si>
   <si>
-    <t>DRO Dump Report</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>DRO(s) Missing Scoring Logic</t>
-  </si>
-  <si>
-    <t>Total Repeated DROs</t>
-  </si>
-  <si>
-    <t>Total DROs (minus repeated DROs)</t>
-  </si>
-  <si>
     <t>HOOS Scoring</t>
   </si>
   <si>
@@ -178,21 +127,12 @@
     <t>Erectile Function</t>
   </si>
   <si>
-    <t>IIEF-5</t>
-  </si>
-  <si>
     <t>Knee Evaluation</t>
   </si>
   <si>
-    <t>IKDC and Pedi-IKDC</t>
-  </si>
-  <si>
     <t>Distal Forearm Fracture</t>
   </si>
   <si>
-    <t>IOF</t>
-  </si>
-  <si>
     <t>Jr. HOOS scoring</t>
   </si>
   <si>
@@ -217,12 +157,6 @@
     <t>PACQLQ papers</t>
   </si>
   <si>
-    <t>PACQLQ</t>
-  </si>
-  <si>
-    <t>PAQLQ</t>
-  </si>
-  <si>
     <t>Reference Paper on PACQLQ</t>
   </si>
   <si>
@@ -271,9 +205,6 @@
     <t>Cervical Cancer</t>
   </si>
   <si>
-    <t>Qualisex</t>
-  </si>
-  <si>
     <t>Quick-DASH</t>
   </si>
   <si>
@@ -286,18 +217,12 @@
     <t>STOPBANG</t>
   </si>
   <si>
-    <t>STOP-Bang</t>
-  </si>
-  <si>
     <t>SVV-SF</t>
   </si>
   <si>
     <t>Vertigo</t>
   </si>
   <si>
-    <t>USP</t>
-  </si>
-  <si>
     <t>Urinary</t>
   </si>
   <si>
@@ -307,24 +232,9 @@
     <t>W-QLI Wisconsin Quality Of Life Assessment</t>
   </si>
   <si>
-    <t>FAAM</t>
-  </si>
-  <si>
-    <t>Activities of Daily Living </t>
-  </si>
-  <si>
-    <t>Health Related Quality of Life</t>
-  </si>
-  <si>
-    <t>FADI</t>
-  </si>
-  <si>
     <t>Scoring Logic missing</t>
   </si>
   <si>
-    <t>FBI</t>
-  </si>
-  <si>
     <t>Bladder</t>
   </si>
   <si>
@@ -334,105 +244,54 @@
     <t>Quality of Life</t>
   </si>
   <si>
-    <t>FIQ</t>
-  </si>
-  <si>
     <t>Fibromyalgia</t>
   </si>
   <si>
-    <t>GAD </t>
-  </si>
-  <si>
     <t>Anxiety Disorder </t>
   </si>
   <si>
     <t>JR. KOOS</t>
   </si>
   <si>
-    <t>KNEE </t>
-  </si>
-  <si>
-    <t>KPS</t>
-  </si>
-  <si>
     <t>Performance</t>
   </si>
   <si>
-    <t>LFQ</t>
-  </si>
-  <si>
     <t>Lung </t>
   </si>
   <si>
-    <t>Lupus PRO</t>
-  </si>
-  <si>
     <t>Lupus</t>
   </si>
   <si>
-    <t>M-AQLQ</t>
-  </si>
-  <si>
-    <t>COPD</t>
-  </si>
-  <si>
-    <t>Multi Dimensional Health Assessment</t>
-  </si>
-  <si>
     <t>Health Assessment </t>
   </si>
   <si>
     <t>MENQoL Menopause specific 1 Month</t>
   </si>
   <si>
-    <t>Quality of Life Questionnaire </t>
-  </si>
-  <si>
     <t>MENQoL Menopause-specific 1 Week Intervention Version</t>
   </si>
   <si>
     <t>Fatigue</t>
   </si>
   <si>
-    <t>Mini-AQLQ</t>
-  </si>
-  <si>
-    <t>MPAQ</t>
-  </si>
-  <si>
     <t>Chronic physical illness</t>
   </si>
   <si>
     <t>Migraine QOL</t>
   </si>
   <si>
-    <t>MVSS and VSS</t>
-  </si>
-  <si>
     <t>Vertigo Symptom Scale</t>
   </si>
   <si>
-    <t>NDI</t>
-  </si>
-  <si>
     <t>Neck Disability</t>
   </si>
   <si>
-    <t>OAKHQOL</t>
-  </si>
-  <si>
     <t>Knee and hip quality of life</t>
   </si>
   <si>
-    <t>ODI</t>
-  </si>
-  <si>
     <t>Low Back Pain Disability</t>
   </si>
   <si>
-    <t>OLQL</t>
-  </si>
-  <si>
     <t>Quality of Life in Women with Osteoporosis</t>
   </si>
   <si>
@@ -655,32 +514,508 @@
     <t>The questionnaire section is not legible. Scoring and scoring logic missing.</t>
   </si>
   <si>
-    <t>Invalid/Incomplete</t>
-  </si>
-  <si>
-    <t>Diagnosis</t>
-  </si>
-  <si>
     <t>Abbott Comment</t>
   </si>
   <si>
     <t>Carematix Comment</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated PRO(Same as #2). Scoring Logic is missing </t>
-  </si>
-  <si>
-    <t>Repeated PRO(Same as #4). Scoring Logic is missing</t>
-  </si>
-  <si>
-    <t>Scoring or Scoring Logic missing</t>
+    <t>TA - Therapeutic Area</t>
+  </si>
+  <si>
+    <t>PROMIS Anxiety</t>
+  </si>
+  <si>
+    <t>Mental</t>
+  </si>
+  <si>
+    <t>Neurology Psychiatry</t>
+  </si>
+  <si>
+    <t>Cognitive Function</t>
+  </si>
+  <si>
+    <t>PROMIS Cog Fun</t>
+  </si>
+  <si>
+    <t>PROMIS_Dep</t>
+  </si>
+  <si>
+    <t>Emotional Distress - Anxiety</t>
+  </si>
+  <si>
+    <t>Emotional Distress - Depression</t>
+  </si>
+  <si>
+    <t>PROMIS_Dys_Act_Mot</t>
+  </si>
+  <si>
+    <t>Dyspnea Activity Motivation</t>
+  </si>
+  <si>
+    <t>Physical Health</t>
+  </si>
+  <si>
+    <t>Respiratory</t>
+  </si>
+  <si>
+    <t>PROMIS_Dys_Fun_Lim</t>
+  </si>
+  <si>
+    <t>Dyspnea Functional Limitations</t>
+  </si>
+  <si>
+    <t>PROMIS_Fact_Int_Sex_Sat</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Factors Interfering with Sexual Satisfaction</t>
+  </si>
+  <si>
+    <t>PROMIS_Fatigue</t>
+  </si>
+  <si>
+    <t>PROMIS_Gen_life_sat</t>
+  </si>
+  <si>
+    <t>General Life Satisfaction</t>
+  </si>
+  <si>
+    <t>Scoring Logic is missing. Scoring file given for this is that of Sustance Use.</t>
+  </si>
+  <si>
+    <t>Scoring Logic is missing. Scoring file given for this is that of Functional Limitation.</t>
+  </si>
+  <si>
+    <t>PROMIS_Itch_Act_Clo</t>
+  </si>
+  <si>
+    <t>General Health</t>
+  </si>
+  <si>
+    <t>Itch-Activity and Clothing</t>
+  </si>
+  <si>
+    <t>PROMIS_Mean_Pur</t>
+  </si>
+  <si>
+    <t>Meaning and Purpose</t>
+  </si>
+  <si>
+    <t>Pain Behavior</t>
+  </si>
+  <si>
+    <t>PROMIS_Pain_Beh</t>
+  </si>
+  <si>
+    <t>PROMIS_Pain_Int</t>
+  </si>
+  <si>
+    <t>Pain Interference</t>
+  </si>
+  <si>
+    <t>PROMIS_Phy_Fun_w_Mob_Aid</t>
+  </si>
+  <si>
+    <t>Physical Function with Mobility</t>
+  </si>
+  <si>
+    <t>PROMIS_Posi_Aff</t>
+  </si>
+  <si>
+    <t>Positive Affect</t>
+  </si>
+  <si>
+    <t>PROMIS_Rx_Pain_Med_Mis</t>
+  </si>
+  <si>
+    <t>Prescription Pain Medication Misuse</t>
+  </si>
+  <si>
+    <t>Self-Efficacy for Managing Emotions</t>
+  </si>
+  <si>
+    <t>PROMIS_Self_Eff_Man_Emo</t>
+  </si>
+  <si>
+    <t>PROMIS_Self_Eff_Man_Meds</t>
+  </si>
+  <si>
+    <t>Self-Efficacy for Managing Medications and Treatment</t>
+  </si>
+  <si>
+    <t>PROMIS_Sex_Fun_Scre</t>
+  </si>
+  <si>
+    <t>Sexual Function Screeners</t>
+  </si>
+  <si>
+    <t>PROMIS_Sle_Rel_Imp</t>
+  </si>
+  <si>
+    <t>Sleep Related Impairment</t>
+  </si>
+  <si>
+    <t>PROMIS_Sleep_Dist</t>
+  </si>
+  <si>
+    <t>Sleep Disturbance</t>
+  </si>
+  <si>
+    <t>PROMIS_Sub_Use</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Substance Use</t>
+  </si>
+  <si>
+    <t>Therapeutic Aids for Sexual Activity</t>
+  </si>
+  <si>
+    <t>PROMIS_Ther_Aid_Sex_Act_Female</t>
+  </si>
+  <si>
+    <t>PROMIS_Ther_Aid_Sex_Act_Male</t>
+  </si>
+  <si>
+    <t>Is scoring same as #83?</t>
+  </si>
+  <si>
+    <t>PROMIS_Upp_Ext</t>
+  </si>
+  <si>
+    <t>Upper Extremity</t>
+  </si>
+  <si>
+    <t>PROMIS_Emo_Sup</t>
+  </si>
+  <si>
+    <t>Mental Health</t>
+  </si>
+  <si>
+    <t>Emotional Support</t>
+  </si>
+  <si>
+    <t>PROMIS_Psy_Ill_mp_Neg</t>
+  </si>
+  <si>
+    <t>Psychosocial Illness Impact-Negative</t>
+  </si>
+  <si>
+    <t>The questions are same as #38</t>
+  </si>
+  <si>
+    <t>The questions are same as #37</t>
+  </si>
+  <si>
+    <t>Women's Health</t>
+  </si>
+  <si>
+    <t>Quality of Life Questionnaire - Menopause</t>
+  </si>
+  <si>
+    <t>MENQoL Menopause specific 1 Month INTERVENTION VERSION</t>
+  </si>
+  <si>
+    <t>MENQoL Menopause-specific 1 Week Intervention Version INTERVENTION VERSION</t>
+  </si>
+  <si>
+    <t>Fertility Quality of Life Questionnaire</t>
+  </si>
+  <si>
+    <t>This is a repeated PRO. Same as #94</t>
+  </si>
+  <si>
+    <t>Same as #21</t>
+  </si>
+  <si>
+    <t>Location(*.xlsx)</t>
+  </si>
+  <si>
+    <t>First 6 PROs.xlsx</t>
+  </si>
+  <si>
+    <t>76 - 85 PROs.xslx</t>
+  </si>
+  <si>
+    <t>86 - 100 PROs.xslx</t>
+  </si>
+  <si>
+    <t>MENQoL Menopause-specific Quality of Life Questionnaire 1 Month</t>
+  </si>
+  <si>
+    <t>7 - 15 PROs.xlsx</t>
+  </si>
+  <si>
+    <t>MENQoL Menopause-specific Quality of Life Questionnaire 1 Week</t>
+  </si>
+  <si>
+    <t>The questions are same as #37,38,92,93,96</t>
+  </si>
+  <si>
+    <t>The questions are same as #37,38,93,97,98</t>
+  </si>
+  <si>
+    <t>The questions are same as #37,38,92,97,98</t>
+  </si>
+  <si>
+    <t>The questions are same as #37,38,92,93,95,97,98</t>
+  </si>
+  <si>
+    <t>The questions are same as #37,38,92,93,96,97,98</t>
+  </si>
+  <si>
+    <t>Same as #21,94,100</t>
+  </si>
+  <si>
+    <t>Same as #21,94,99</t>
+  </si>
+  <si>
+    <t>Psychiatry</t>
+  </si>
+  <si>
+    <t>Is this a ClinRO. Same as #101</t>
+  </si>
+  <si>
+    <t>Same as #25</t>
+  </si>
+  <si>
+    <t>HAM-A Hamilton Anxiety Scale</t>
+  </si>
+  <si>
+    <t>CNS</t>
+  </si>
+  <si>
+    <t>CNS / Pain</t>
+  </si>
+  <si>
+    <t>Scoring Logic missing.</t>
+  </si>
+  <si>
+    <t>IIEF</t>
+  </si>
+  <si>
+    <t>Erectile Dysfunction</t>
+  </si>
+  <si>
+    <t>Urology</t>
+  </si>
+  <si>
+    <t>16 - 25 PROs.xlsx</t>
+  </si>
+  <si>
+    <t>Not in English</t>
+  </si>
+  <si>
+    <t>Orthopaedy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Quality of Life </t>
+  </si>
+  <si>
+    <t>FAAM Foot and Ankle Ability Measure</t>
+  </si>
+  <si>
+    <t>DASH Disabilities of the Arm, Shoulder, and Hand Score</t>
+  </si>
+  <si>
+    <t>Foot and Ankle Ability Measure.</t>
+  </si>
+  <si>
+    <t>FADI Foot and Ankle Disability Index</t>
+  </si>
+  <si>
+    <t>HOOS Hip Osteoarthritis Outcome Score</t>
+  </si>
+  <si>
+    <t>IKDC and Pedi-IKDC International Knee Documentation Committee and Subjective Knee Form</t>
+  </si>
+  <si>
+    <t>NDI Neck Disability Index</t>
+  </si>
+  <si>
+    <t>ODI Oswestry Disability Index</t>
+  </si>
+  <si>
+    <t>26 - 35 PROs.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IIEF-5 International Index of Erectile Function Questionnaire </t>
+  </si>
+  <si>
+    <t>Knee (Osteoarthritis)</t>
+  </si>
+  <si>
+    <t>Hip (Osteoarthritis)</t>
+  </si>
+  <si>
+    <t>Shoulder (Instability)</t>
+  </si>
+  <si>
+    <t>Obstructive Sleep Apnea (OSA)</t>
+  </si>
+  <si>
+    <t>USP Urinay Symptom Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EORTC QLQ-C30 Quality of Life Questionnaire Cancer </t>
+  </si>
+  <si>
+    <t>Cancer QOL</t>
+  </si>
+  <si>
+    <t>Oncology</t>
+  </si>
+  <si>
+    <t>ACT Asthma Control Test</t>
+  </si>
+  <si>
+    <t>Childhood Asthma Control test</t>
+  </si>
+  <si>
+    <t>36 - 45 PROs.xlsx</t>
+  </si>
+  <si>
+    <t>GAD-7 Generalised Anxiety Disorder Assessment</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
+  </si>
+  <si>
+    <t>KPS Karnofsky Performance Status</t>
+  </si>
+  <si>
+    <t>LFQ Lung Function Questionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-AQLQ Marks Asthma Quality of Life Questionnaire </t>
+  </si>
+  <si>
+    <t>McGill COPD Quality of Life Questionnaire</t>
+  </si>
+  <si>
+    <t>Mini-Asthma Quality of Life Questionnaire (Mini AQLQ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPAQ 
+Maastricht Personal Autonomy Questionnaire </t>
+  </si>
+  <si>
+    <t>MVSS and VSS (Modified) Vertigo Symptom Scale</t>
+  </si>
+  <si>
+    <t>PACQLQ Paediatric Asthma Caregiver's Quality of Life Questionnaire</t>
+  </si>
+  <si>
+    <t>46 - 55 PROs.xlsx</t>
+  </si>
+  <si>
+    <t>PAQLQ Paediatric Asthma Quality of Life Questionnaire</t>
+  </si>
+  <si>
+    <t>PCOSQ Quality-of-Life Questionnaire for Women with Polycystic Ovary Syndrome (PCOS)</t>
+  </si>
+  <si>
+    <t>Polycystic Ovary Syndrome (PCOS)</t>
+  </si>
+  <si>
+    <t>SGRQ St George ’s Respiratory Questionnaire</t>
+  </si>
+  <si>
+    <t>Rheumatic and Muscoskeletal Diseases</t>
+  </si>
+  <si>
+    <t>Arthritis Impact Measurement Scale 2 (AIMS2) -SF
+Arthritis Impact Measurement Scale 2 (AIMS2)</t>
+  </si>
+  <si>
+    <t>Scoring and Scoring Logic is missing. Same as #2</t>
+  </si>
+  <si>
+    <t>Repeated PRO(Same as #3). Scoring Logic is missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankylosing Spondylitis Quality of Life (ASQoL) </t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessment of Health Related Quality of Life in Osteoporosis (ECOS-16) </t>
+  </si>
+  <si>
+    <t>Scoring Logic is missing.</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>Bath Ankylosing Spondylitis Disease Activity Score (BASDAI)</t>
+  </si>
+  <si>
+    <t>56 - 65 PROs.xlsx</t>
+  </si>
+  <si>
+    <t>Dallas Pain Questionnaire (DPQ)</t>
+  </si>
+  <si>
+    <t>Lupus Patient-Reported Outcome tool (LupusPRO)</t>
+  </si>
+  <si>
+    <t>Multidimensional Health Assesssment Questionnaire (MDHAQ)</t>
+  </si>
+  <si>
+    <t>Osteoarthritis Knee and Hip Quality Of Life (OAKHQOL)</t>
+  </si>
+  <si>
+    <t>Osteoporosis Quality of life Questionnaire (OQLQ)</t>
+  </si>
+  <si>
+    <t>Pediatric Rheumatology Quality of Life Scale (PRQL)</t>
+  </si>
+  <si>
+    <t>Pediatric Rheumatology</t>
+  </si>
+  <si>
+    <t>Scoring and Scoring Logic is missing.</t>
+  </si>
+  <si>
+    <t>66 - 75 PROs.xlsx</t>
+  </si>
+  <si>
+    <t>Qualisex Sexuality and rheumatoid arthritis (Qualisex)</t>
+  </si>
+  <si>
+    <t>Wrist questionnaire (IOF)</t>
+  </si>
+  <si>
+    <t>The Fibromyalgia Impact Questionnaire (FIQ)</t>
+  </si>
+  <si>
+    <t>The Fibromyalgia Bladder Index (FBI)</t>
+  </si>
+  <si>
+    <t>Quality of Life Questionnaire in Osteoporosis (QUALIOST®):</t>
+  </si>
+  <si>
+    <t>Individual scores for each question missing.</t>
+  </si>
+  <si>
+    <t>DRO Dump Index</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,14 +1063,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,8 +1102,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -763,11 +1123,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -835,112 +1210,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <font>
         <strike val="0"/>
@@ -995,12 +1299,17 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1047,6 +1356,42 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1056,7 +1401,20 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1204,58 +1562,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B10:H75" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B10:H75"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="#" dataDxfId="13"/>
-    <tableColumn id="2" name="DRO Name" dataDxfId="12"/>
-    <tableColumn id="3" name="Diagnosis" dataDxfId="11"/>
-    <tableColumn id="4" name="Scoring" dataDxfId="10"/>
-    <tableColumn id="5" name="Repeated" dataDxfId="9"/>
-    <tableColumn id="6" name="Carematix Comment" dataDxfId="8"/>
-    <tableColumn id="7" name="Abbott Comment" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B10:K131" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="B10:K131"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="#" dataDxfId="11"/>
+    <tableColumn id="2" name="DRO Name" dataDxfId="10"/>
+    <tableColumn id="8" name="Category" dataDxfId="9"/>
+    <tableColumn id="9" name="TA - Therapeutic Area" dataDxfId="8"/>
+    <tableColumn id="3" name="Measure" dataDxfId="7"/>
+    <tableColumn id="4" name="Scoring" dataDxfId="6"/>
+    <tableColumn id="5" name="Repeated" dataDxfId="5"/>
+    <tableColumn id="10" name="Location(*.xlsx)" dataDxfId="4"/>
+    <tableColumn id="6" name="Carematix Comment" dataDxfId="3"/>
+    <tableColumn id="7" name="Abbott Comment" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:D8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="B3:D8"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="#" dataDxfId="4"/>
-    <tableColumn id="2" name="DRO Dump Report" dataDxfId="3"/>
-    <tableColumn id="3" name="Value" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:G7" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:G7" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="B3:G7"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="27"/>
-    <tableColumn id="2" name="DRO Name" dataDxfId="26"/>
-    <tableColumn id="3" name="Category" dataDxfId="25"/>
-    <tableColumn id="4" name="Scoring" dataDxfId="24"/>
-    <tableColumn id="5" name="Repeated" dataDxfId="23"/>
-    <tableColumn id="6" name="Comment" dataDxfId="22"/>
+    <tableColumn id="1" name="#" dataDxfId="25"/>
+    <tableColumn id="2" name="DRO Name" dataDxfId="24"/>
+    <tableColumn id="3" name="Category" dataDxfId="23"/>
+    <tableColumn id="4" name="Scoring" dataDxfId="22"/>
+    <tableColumn id="5" name="Repeated" dataDxfId="21"/>
+    <tableColumn id="6" name="Comment" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table136" displayName="Table136" ref="B3:G8" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table136" displayName="Table136" ref="B3:G8" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="B3:G8"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="19"/>
-    <tableColumn id="2" name="DRO Name" dataDxfId="18"/>
-    <tableColumn id="3" name="Category" dataDxfId="17"/>
-    <tableColumn id="4" name="Scoring" dataDxfId="16"/>
-    <tableColumn id="5" name="Repeated" dataDxfId="15"/>
-    <tableColumn id="6" name="Comment" dataDxfId="14"/>
+    <tableColumn id="1" name="#" dataDxfId="17"/>
+    <tableColumn id="2" name="DRO Name" dataDxfId="16"/>
+    <tableColumn id="3" name="Category" dataDxfId="15"/>
+    <tableColumn id="4" name="Scoring" dataDxfId="14"/>
+    <tableColumn id="5" name="Repeated" dataDxfId="13"/>
+    <tableColumn id="6" name="Comment" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1548,10 +1897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H75"/>
+  <dimension ref="B1:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1560,1380 +1909,3375 @@
     <col min="2" max="2" width="9.6640625" style="10" customWidth="1"/>
     <col min="3" max="3" width="39.44140625" style="12" customWidth="1"/>
     <col min="4" max="4" width="14" style="12" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="28.5546875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="12"/>
+    <col min="5" max="5" width="23.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="12" customWidth="1"/>
+    <col min="7" max="7" width="11" style="12" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C1" s="11"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="14">
-        <v>2</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="14">
-        <v>3</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="D6" s="25">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="14">
-        <v>4</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="14"/>
-      <c r="C8" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="13">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" s="16" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="10" spans="2:11" s="16" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>213</v>
+        <v>2</v>
       </c>
       <c r="E10" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="H10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="10">
+      <c r="I10" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="26">
         <v>1</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="16" t="s">
+      <c r="G11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="2:11" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B12" s="26">
+        <v>2</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="10">
-        <v>2</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="10">
+      <c r="G12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="2:11" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="26">
         <v>3</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>9</v>
+      <c r="C13" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>303</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="10">
+      <c r="G13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="26">
         <v>4</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="C14" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B15" s="26">
+        <v>5</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="26">
+        <v>6</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="26">
+        <v>7</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B18" s="26">
+        <v>8</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B19" s="26">
+        <v>9</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="J19" s="24"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="2:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="26">
         <v>10</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="10">
-        <v>5</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="10">
-        <v>6</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B17" s="10">
-        <v>7</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="10">
-        <v>8</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B19" s="10">
-        <v>9</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="10">
-        <v>10</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B21" s="10">
+      <c r="C20" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B21" s="26">
         <v>11</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>139</v>
+      <c r="C21" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>9</v>
+        <v>178</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>217</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B22" s="26">
+        <v>12</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="16"/>
+    </row>
+    <row r="23" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B23" s="26">
+        <v>13</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="26">
+        <v>14</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="10">
-        <v>12</v>
-      </c>
-      <c r="C22" s="18" t="s">
+      <c r="D24" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="J24" s="18"/>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B25" s="26">
+        <v>15</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B26" s="26">
+        <v>16</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="J26" s="18"/>
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B27" s="26">
+        <v>17</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="J27" s="19"/>
+      <c r="K27" s="16"/>
+    </row>
+    <row r="28" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B28" s="26">
+        <v>18</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="J28" s="19"/>
+      <c r="K28" s="16"/>
+    </row>
+    <row r="29" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B29" s="26">
+        <v>19</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B30" s="26">
+        <v>20</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="J30" s="30"/>
+      <c r="K30" s="16"/>
+    </row>
+    <row r="31" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B31" s="26">
+        <v>21</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="K31" s="16"/>
+    </row>
+    <row r="32" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B32" s="26">
+        <v>22</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="J32" s="30"/>
+      <c r="K32" s="16"/>
+    </row>
+    <row r="33" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B33" s="26">
+        <v>23</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="J33" s="19"/>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B34" s="26">
+        <v>24</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B35" s="26">
+        <v>25</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B36" s="26">
+        <v>26</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+    </row>
+    <row r="37" spans="2:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B37" s="26">
+        <v>27</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+    </row>
+    <row r="38" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B38" s="26">
+        <v>28</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="J38" s="24"/>
+      <c r="K38" s="16"/>
+    </row>
+    <row r="39" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B39" s="26">
+        <v>29</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+    </row>
+    <row r="40" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B40" s="26">
+        <v>30</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+    </row>
+    <row r="41" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B41" s="26">
         <v>31</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="10">
-        <v>13</v>
-      </c>
-      <c r="C23" s="18" t="s">
+      <c r="C41" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+    </row>
+    <row r="42" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B42" s="26">
         <v>32</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="C42" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+    </row>
+    <row r="43" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B43" s="26">
         <v>33</v>
       </c>
-      <c r="E23" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="10">
-        <v>14</v>
-      </c>
-      <c r="C24" s="18" t="s">
+      <c r="C43" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+    </row>
+    <row r="44" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B44" s="26">
         <v>34</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="C44" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="J44" s="24"/>
+      <c r="K44" s="16"/>
+    </row>
+    <row r="45" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B45" s="26">
         <v>35</v>
       </c>
-      <c r="E24" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="10">
-        <v>15</v>
-      </c>
-      <c r="C25" s="18" t="s">
+      <c r="C45" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+    </row>
+    <row r="46" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B46" s="26">
         <v>36</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="C46" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+    </row>
+    <row r="47" spans="2:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B47" s="26">
         <v>37</v>
       </c>
-      <c r="E25" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="10">
-        <v>16</v>
-      </c>
-      <c r="C26" s="18" t="s">
+      <c r="C47" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="K47" s="16"/>
+    </row>
+    <row r="48" spans="2:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B48" s="26">
         <v>38</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="27" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B27" s="10">
-        <v>17</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="10">
-        <v>18</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="10">
-        <v>19</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="10">
-        <v>20</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="10">
-        <v>21</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="10">
-        <v>22</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B33" s="10">
-        <v>23</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="16"/>
-    </row>
-    <row r="34" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B34" s="10">
-        <v>24</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="16" t="s">
+      <c r="C48" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="K48" s="16"/>
+    </row>
+    <row r="49" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B49" s="26">
         <v>39</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-    </row>
-    <row r="35" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B35" s="10">
-        <v>25</v>
-      </c>
-      <c r="C35" s="16" t="s">
+      <c r="C49" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="J49" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="K49" s="16"/>
+    </row>
+    <row r="50" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B50" s="26">
         <v>40</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="C50" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="J50" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="K50" s="16"/>
+    </row>
+    <row r="51" spans="2:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B51" s="26">
         <v>41</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="16" t="s">
+      <c r="C51" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="16"/>
+      <c r="J51" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="K51" s="16"/>
+    </row>
+    <row r="52" spans="2:11" ht="78" x14ac:dyDescent="0.3">
+      <c r="B52" s="26">
         <v>42</v>
       </c>
-      <c r="H35" s="16"/>
-    </row>
-    <row r="36" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B36" s="10">
-        <v>26</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="16" t="s">
+      <c r="C52" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K52" s="24"/>
+    </row>
+    <row r="53" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B53" s="26">
+        <v>43</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+    </row>
+    <row r="54" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B54" s="26">
+        <v>44</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+    </row>
+    <row r="55" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B55" s="26">
+        <v>45</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="16"/>
+      <c r="J55" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="K55" s="16"/>
+    </row>
+    <row r="56" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B56" s="26">
+        <v>46</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+    </row>
+    <row r="57" spans="2:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B57" s="26">
+        <v>47</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="J57" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="K57" s="16"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B58" s="26">
+        <v>48</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+    </row>
+    <row r="59" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B59" s="26">
+        <v>49</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="J59" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="K59" s="16"/>
+    </row>
+    <row r="60" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B60" s="26">
+        <v>50</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="J60" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="K60" s="16"/>
+    </row>
+    <row r="61" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B61" s="26">
+        <v>51</v>
+      </c>
+      <c r="C61" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-    </row>
-    <row r="37" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B37" s="10">
-        <v>27</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B38" s="10">
-        <v>28</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="10">
-        <v>29</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="10">
-        <v>30</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="10">
-        <v>31</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="10">
-        <v>32</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="10">
-        <v>33</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="10">
-        <v>34</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="10">
-        <v>35</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-    </row>
-    <row r="46" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B46" s="10">
-        <v>36</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-    </row>
-    <row r="47" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B47" s="10">
-        <v>37</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-    </row>
-    <row r="48" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B48" s="10">
-        <v>38</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="10">
-        <v>39</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="H49" s="16"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="10">
-        <v>40</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="H50" s="16"/>
-    </row>
-    <row r="51" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B51" s="10">
-        <v>41</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="H51" s="16"/>
-    </row>
-    <row r="52" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B52" s="10">
-        <v>42</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="H52" s="26"/>
-    </row>
-    <row r="53" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B53" s="10">
-        <v>43</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-    </row>
-    <row r="54" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B54" s="10">
-        <v>44</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-    </row>
-    <row r="55" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B55" s="10">
-        <v>45</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="H55" s="16"/>
-    </row>
-    <row r="56" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B56" s="10">
-        <v>46</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-    </row>
-    <row r="57" spans="2:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="B57" s="10">
-        <v>47</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="H57" s="16"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="10">
-        <v>48</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="10">
-        <v>49</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="H59" s="16"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="10">
-        <v>50</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="H60" s="16"/>
-    </row>
-    <row r="61" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B61" s="10">
-        <v>51</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>9</v>
+      <c r="D61" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>303</v>
       </c>
       <c r="F61" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G61" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H61" s="16"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="10">
+      <c r="G61" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="J61" s="24"/>
+      <c r="K61" s="16"/>
+    </row>
+    <row r="62" spans="2:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B62" s="26">
         <v>52</v>
       </c>
-      <c r="C62" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>8</v>
+      <c r="C62" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>232</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="10">
+        <v>301</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B63" s="26">
         <v>53</v>
       </c>
-      <c r="C63" s="16" t="s">
-        <v>77</v>
+      <c r="C63" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>8</v>
+        <v>217</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="10">
+        <v>56</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B64" s="26">
         <v>54</v>
       </c>
-      <c r="C64" s="16" t="s">
-        <v>79</v>
+      <c r="C64" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>8</v>
+        <v>217</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-    </row>
-    <row r="65" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B65" s="10">
+        <v>56</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+    </row>
+    <row r="65" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B65" s="26">
         <v>55</v>
       </c>
-      <c r="C65" s="16" t="s">
-        <v>80</v>
+      <c r="C65" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>8</v>
+        <v>217</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-    </row>
-    <row r="66" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B66" s="10">
+        <v>59</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+    </row>
+    <row r="66" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B66" s="26">
         <v>56</v>
       </c>
-      <c r="C66" s="16" t="s">
-        <v>82</v>
+      <c r="C66" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>8</v>
+        <v>232</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H66" s="16"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="10">
+        <v>7</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="16"/>
+    </row>
+    <row r="67" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B67" s="26">
         <v>57</v>
       </c>
-      <c r="C67" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>8</v>
+      <c r="C67" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>303</v>
       </c>
       <c r="F67" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="10">
+      <c r="G67" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+    </row>
+    <row r="68" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B68" s="26">
         <v>58</v>
       </c>
-      <c r="C68" s="16" t="s">
-        <v>85</v>
+      <c r="C68" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>8</v>
+        <v>265</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-    </row>
-    <row r="69" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B69" s="10">
+        <v>24</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+    </row>
+    <row r="69" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B69" s="26">
         <v>59</v>
       </c>
-      <c r="C69" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>8</v>
+      <c r="C69" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E69" s="31" t="s">
+        <v>303</v>
       </c>
       <c r="F69" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-    </row>
-    <row r="70" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B70" s="10">
+      <c r="G69" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+    </row>
+    <row r="70" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B70" s="26">
         <v>60</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G70" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" s="16"/>
+    </row>
+    <row r="71" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B71" s="26">
+        <v>61</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+    </row>
+    <row r="72" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B72" s="26">
+        <v>62</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E72" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="K72" s="16"/>
+    </row>
+    <row r="73" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B73" s="26">
+        <v>63</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K73" s="16"/>
+    </row>
+    <row r="74" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B74" s="26">
+        <v>64</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+    </row>
+    <row r="75" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B75" s="26">
+        <v>65</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+    </row>
+    <row r="76" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B76" s="26">
+        <v>66</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B77" s="26">
+        <v>67</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+    </row>
+    <row r="78" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B78" s="26">
+        <v>68</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+    </row>
+    <row r="79" spans="2:11" ht="78" x14ac:dyDescent="0.3">
+      <c r="B79" s="26">
+        <v>69</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K79" s="16"/>
+    </row>
+    <row r="80" spans="2:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B80" s="26">
+        <v>70</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H80" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I80" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+    </row>
+    <row r="81" spans="2:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B81" s="26">
+        <v>71</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H81" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+    </row>
+    <row r="82" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B82" s="26">
+        <v>72</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H82" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+    </row>
+    <row r="83" spans="2:11" ht="78" x14ac:dyDescent="0.3">
+      <c r="B83" s="26">
+        <v>73</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K83" s="16"/>
+    </row>
+    <row r="84" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B84" s="26">
+        <v>74</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H84" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+    </row>
+    <row r="85" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B85" s="26">
+        <v>75</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B86" s="26">
+        <v>76</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H86" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+    </row>
+    <row r="87" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B87" s="26">
+        <v>77</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H87" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I87" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="J87" s="16"/>
+      <c r="K87" s="16"/>
+    </row>
+    <row r="88" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B88" s="26">
+        <v>78</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H88" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I88" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
+    </row>
+    <row r="89" spans="2:11" ht="78" x14ac:dyDescent="0.3">
+      <c r="B89" s="26">
+        <v>79</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H89" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K89" s="16"/>
+    </row>
+    <row r="90" spans="2:11" ht="78" x14ac:dyDescent="0.3">
+      <c r="B90" s="26">
+        <v>80</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H90" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K90" s="16"/>
+    </row>
+    <row r="91" spans="2:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B91" s="26">
+        <v>81</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H91" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+    </row>
+    <row r="92" spans="2:11" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B92" s="26">
+        <v>82</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="G92" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H92" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I92" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+    </row>
+    <row r="93" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B93" s="26">
+        <v>83</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
+    </row>
+    <row r="94" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B94" s="26">
+        <v>84</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H94" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16"/>
+    </row>
+    <row r="95" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B95" s="26">
+        <v>85</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="G95" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H95" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B96" s="26">
+        <v>86</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H96" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I96" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+    </row>
+    <row r="97" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B97" s="26">
         <v>87</v>
       </c>
-      <c r="D70" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E70" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H70" s="16"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="10">
-        <v>61</v>
-      </c>
-      <c r="C71" s="16" t="s">
+      <c r="C97" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="G97" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H97" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="K97" s="16"/>
+    </row>
+    <row r="98" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B98" s="26">
         <v>88</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="C98" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H98" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I98" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="K98" s="16"/>
+    </row>
+    <row r="99" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B99" s="26">
         <v>89</v>
       </c>
-      <c r="E71" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="10">
-        <v>62</v>
-      </c>
-      <c r="C72" s="16" t="s">
+      <c r="C99" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F99" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="G99" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H99" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I99" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
+    </row>
+    <row r="100" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B100" s="26">
         <v>90</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="C100" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F100" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="G100" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H100" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+    </row>
+    <row r="101" spans="2:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B101" s="26">
         <v>91</v>
       </c>
-      <c r="E72" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-    </row>
-    <row r="73" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B73" s="10">
-        <v>63</v>
-      </c>
-      <c r="C73" s="16" t="s">
+      <c r="C101" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F101" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="G101" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H101" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="J101" s="16"/>
+      <c r="K101" s="16"/>
+    </row>
+    <row r="102" spans="2:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B102" s="26">
         <v>92</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="C102" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F102" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="G102" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H102" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I102" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="K102" s="16"/>
+    </row>
+    <row r="103" spans="2:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B103" s="26">
         <v>93</v>
       </c>
-      <c r="E73" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H73" s="16"/>
-    </row>
-    <row r="74" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B74" s="10">
-        <v>64</v>
-      </c>
-      <c r="C74" s="16" t="s">
+      <c r="C103" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F103" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="G103" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H103" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I103" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K103" s="16"/>
+    </row>
+    <row r="104" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B104" s="26">
         <v>94</v>
       </c>
-      <c r="D74" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-    </row>
-    <row r="75" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B75" s="10">
-        <v>65</v>
-      </c>
-      <c r="C75" s="16" t="s">
+      <c r="C104" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F104" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="G104" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H104" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I104" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="K104" s="16"/>
+    </row>
+    <row r="105" spans="2:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B105" s="26">
         <v>95</v>
       </c>
-      <c r="D75" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
+      <c r="C105" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F105" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="G105" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H105" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I105" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="K105" s="16"/>
+    </row>
+    <row r="106" spans="2:11" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B106" s="26">
+        <v>96</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E106" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F106" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="G106" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H106" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I106" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="K106" s="16"/>
+    </row>
+    <row r="107" spans="2:11" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B107" s="26">
+        <v>97</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E107" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F107" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="G107" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H107" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I107" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="K107" s="16"/>
+    </row>
+    <row r="108" spans="2:11" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B108" s="26">
+        <v>98</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F108" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="G108" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H108" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I108" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="K108" s="16"/>
+    </row>
+    <row r="109" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B109" s="26">
+        <v>99</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F109" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="G109" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H109" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I109" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="K109" s="16"/>
+    </row>
+    <row r="110" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B110" s="26">
+        <v>100</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D110" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F110" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="G110" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H110" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I110" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="K110" s="16"/>
+    </row>
+    <row r="111" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B111" s="26">
+        <v>101</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="F111" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G111" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H111" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I111" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="K111" s="16"/>
+    </row>
+    <row r="112" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B112" s="26">
+        <v>102</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E112" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="F112" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H112" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I112" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="J112" s="16"/>
+      <c r="K112" s="16"/>
+    </row>
+    <row r="113" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B113" s="26">
+        <v>103</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D113" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E113" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="F113" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G113" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H113" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I113" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="J113" s="16"/>
+      <c r="K113" s="16"/>
+    </row>
+    <row r="114" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B114" s="26">
+        <v>104</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D114" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E114" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="F114" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="G114" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H114" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I114" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="J114" s="16"/>
+      <c r="K114" s="16"/>
+    </row>
+    <row r="115" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B115" s="26">
+        <v>105</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F115" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G115" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H115" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I115" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="J115" s="16"/>
+      <c r="K115" s="16"/>
+    </row>
+    <row r="116" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B116" s="26">
+        <v>106</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F116" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G116" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H116" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I116" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="K116" s="16"/>
+    </row>
+    <row r="117" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B117" s="26">
+        <v>107</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="D117" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E117" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="F117" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="G117" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H117" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I117" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="K117" s="16"/>
+    </row>
+    <row r="118" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B118" s="26">
+        <v>108</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D118" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E118" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="F118" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H118" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I118" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="K118" s="16"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B119" s="26">
+        <v>109</v>
+      </c>
+      <c r="C119" s="20"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="16"/>
+      <c r="I119" s="16"/>
+      <c r="J119" s="16"/>
+      <c r="K119" s="16"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B120" s="26">
+        <v>110</v>
+      </c>
+      <c r="C120" s="20"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
+      <c r="I120" s="16"/>
+      <c r="J120" s="16"/>
+      <c r="K120" s="16"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B121" s="26">
+        <v>111</v>
+      </c>
+      <c r="C121" s="20"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="16"/>
+      <c r="I121" s="16"/>
+      <c r="J121" s="16"/>
+      <c r="K121" s="16"/>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B122" s="26">
+        <v>112</v>
+      </c>
+      <c r="C122" s="20"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
+      <c r="I122" s="16"/>
+      <c r="J122" s="16"/>
+      <c r="K122" s="16"/>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B123" s="26">
+        <v>113</v>
+      </c>
+      <c r="C123" s="20"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="16"/>
+      <c r="I123" s="16"/>
+      <c r="J123" s="16"/>
+      <c r="K123" s="16"/>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B124" s="26">
+        <v>114</v>
+      </c>
+      <c r="C124" s="20"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="16"/>
+      <c r="J124" s="16"/>
+      <c r="K124" s="16"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B125" s="26">
+        <v>115</v>
+      </c>
+      <c r="C125" s="20"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="16"/>
+      <c r="K125" s="16"/>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B126" s="26">
+        <v>116</v>
+      </c>
+      <c r="C126" s="20"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="16"/>
+      <c r="J126" s="16"/>
+      <c r="K126" s="16"/>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B127" s="26">
+        <v>117</v>
+      </c>
+      <c r="C127" s="20"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
+      <c r="I127" s="16"/>
+      <c r="J127" s="16"/>
+      <c r="K127" s="16"/>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B128" s="26">
+        <v>118</v>
+      </c>
+      <c r="C128" s="20"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
+      <c r="I128" s="16"/>
+      <c r="J128" s="16"/>
+      <c r="K128" s="16"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B129" s="26">
+        <v>119</v>
+      </c>
+      <c r="C129" s="20"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
+      <c r="I129" s="16"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="16"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B130" s="26">
+        <v>120</v>
+      </c>
+      <c r="C130" s="20"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="16"/>
+      <c r="I130" s="16"/>
+      <c r="J130" s="16"/>
+      <c r="K130" s="16"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B131" s="26"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="16"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:E7"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Category Information" error="Please select the applicable category" sqref="D112:D114 D71:D72 D23 D62 D27:D29 D11 D34 D41"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2986,19 +5330,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -3006,19 +5350,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -3026,19 +5370,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -3046,19 +5390,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3118,19 +5462,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -3138,19 +5482,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -3158,19 +5502,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -3178,19 +5522,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -3198,19 +5542,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3244,13 +5588,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3258,13 +5602,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3272,13 +5616,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -3286,13 +5630,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -3300,13 +5644,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -3314,13 +5658,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -3328,13 +5672,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -3342,13 +5686,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -3356,13 +5700,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -3370,13 +5714,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -3384,13 +5728,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -3398,13 +5742,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -3412,13 +5756,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -3426,13 +5770,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3440,13 +5784,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -3454,13 +5798,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -3468,13 +5812,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -3482,13 +5826,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -3496,13 +5840,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -3510,13 +5854,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -3524,13 +5868,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -3538,13 +5882,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -3552,13 +5896,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -3566,13 +5910,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -3580,13 +5924,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -3594,13 +5938,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -3608,13 +5952,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -3622,13 +5966,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -3636,13 +5980,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -3650,13 +5994,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -3664,13 +6008,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -3678,13 +6022,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -3692,13 +6036,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -3706,13 +6050,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -3720,13 +6064,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -3734,13 +6078,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -3748,13 +6092,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
